--- a/District_data.xlsx
+++ b/District_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkj\Documents\GitHub\Tanzania Dairy Mitigation Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6E31572-366D-4AEA-BB82-847BFA2ED539}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C324F11C-4E2A-428A-A3CF-CE08BB2E58FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E5AB03EE-4122-49AE-958A-F6D61293CB28}"/>
   </bookViews>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E018F5-1B29-43D9-B188-1FD07458880D}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
